--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JD\Documents\RESEARCH\hydroinformatics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9378A5C7-F023-4889-A61C-C48093793230}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5394B17-57E5-4045-91A2-C857E3F7C665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4806" yWindow="7488" windowWidth="9792" windowHeight="9804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2_21" sheetId="1" r:id="rId1"/>
+    <sheet name="3_7" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t xml:space="preserve">In </t>
   </si>
@@ -50,13 +51,19 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Exam question</t>
+  </si>
+  <si>
+    <t>Exam Question</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -108,8 +115,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -393,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -674,4 +681,279 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E774E9F-4EEE-438F-921F-BEF6C88D0266}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.9453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.9453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1015625" customWidth="1"/>
+    <col min="8" max="8" width="31.20703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>44262</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4">
+        <f>C3-B3+(E3-D3)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F15" si="0">C4-B4+(E4-D4)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>44267</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="1">
+        <v>44268</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <f>SUM(F3:F8)</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>44269</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4">
+        <f>C9-B9+(E9-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4">
+        <f>C10-B10+(E10-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <v>44272</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
+        <v>44273</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12430555555555567</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
+        <v>44274</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="1">
+        <v>44275</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <f>SUM(F10:F15)</f>
+        <v>0.16597222222222235</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JD\Documents\RESEARCH\hydroinformatics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5394B17-57E5-4045-91A2-C857E3F7C665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4797F136-640B-4AD7-A97C-9B4010429C82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2_21" sheetId="1" r:id="rId1"/>
     <sheet name="3_7" sheetId="2" r:id="rId2"/>
+    <sheet name="3_21" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t xml:space="preserve">In </t>
   </si>
@@ -687,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E774E9F-4EEE-438F-921F-BEF6C88D0266}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -956,4 +957,257 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BB96DA-2116-4637-8690-E1E61489AF4A}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.9453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.9453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1015625" customWidth="1"/>
+    <col min="8" max="8" width="31.20703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>44276</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4">
+        <f>C3-B3+(E3-D3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F15" si="0">C4-B4+(E4-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>44280</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="1">
+        <v>44282</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <f>SUM(F3:F8)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>44283</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4">
+        <f>C9-B9+(E9-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>44284</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4">
+        <f>C10-B10+(E10-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>44285</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
+        <v>44288</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <f>SUM(F10:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>